--- a/biology/Botanique/Nepenthes_lowii/Nepenthes_lowii.xlsx
+++ b/biology/Botanique/Nepenthes_lowii/Nepenthes_lowii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nepenthes lowii est une espèce de plantes à fleurs de la famille des Nepenthaceae. C'est une plante carnivore endémique de l'Île de Bornéo en Asie du Sud-Est. Elle se trouve sur plusieurs sommets du nord de Bornéo à des altitudes variant de 1 650 à 2 600 m. La forme particulière du piège en fait une plante rare et recherchée.
 </t>
@@ -511,7 +523,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nepenthes Lowii est une plante grimpante qui peut atteindre 10 m de long dans la nature. Les urnes supérieures sont d'une forme très caractéristique : enflée à la base, se rétrécissant au milieu et particulièrement large au niveau du péristome. La taille des pièges dépasse parfois les 25 cm de haut pour 10 cm de large.
 </t>
@@ -542,7 +556,9 @@
           <t>Hybridation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe au moins sept hybrides naturels de cette espèce.
 </t>
